--- a/Benchmark/quine_mccluskey_algo/Thruster_Truth_Table_b.xlsx
+++ b/Benchmark/quine_mccluskey_algo/Thruster_Truth_Table_b.xlsx
@@ -486,7 +486,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
@@ -518,7 +518,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
@@ -550,7 +550,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
@@ -582,7 +582,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
@@ -614,7 +614,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="n">
@@ -646,7 +646,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="n">
@@ -678,7 +678,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="n">
@@ -710,7 +710,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="n">
@@ -742,7 +742,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="n">
@@ -774,7 +774,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="n">
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="n">
@@ -838,7 +838,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="n">
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="n">
@@ -902,7 +902,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="n">
@@ -934,7 +934,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="n">
@@ -966,7 +966,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="n">
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="n">
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="n">
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="n">
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="n">
@@ -1126,7 +1126,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
       <c r="B22" t="n">
@@ -1158,7 +1158,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
       <c r="B23" t="n">
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
       <c r="B24" t="n">
@@ -1222,7 +1222,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="n">
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="n">
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="n">
@@ -1318,7 +1318,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
       <c r="B28" t="n">
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="n">
@@ -1382,7 +1382,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="n">
@@ -1414,7 +1414,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="n">
@@ -1446,7 +1446,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
       <c r="B32" t="n">
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
       <c r="B33" t="n">
@@ -1510,7 +1510,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
       <c r="B34" t="n">
@@ -1542,7 +1542,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
       <c r="B35" t="n">
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
       <c r="B36" t="n">
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
       <c r="B37" t="n">
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
       <c r="B38" t="n">
@@ -1670,7 +1670,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
       <c r="B39" t="n">
@@ -1702,7 +1702,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
       <c r="B40" t="n">
@@ -1734,7 +1734,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
       <c r="B41" t="n">
@@ -1766,7 +1766,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
       <c r="B42" t="n">
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
       <c r="B43" t="n">
@@ -1830,7 +1830,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="n">
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="n">
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
       <c r="B46" t="n">
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
       <c r="B47" t="n">
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
       <c r="B48" t="n">
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="n">
@@ -2022,7 +2022,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
       <c r="B50" t="n">
@@ -2054,7 +2054,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
       <c r="B51" t="n">
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
       <c r="B52" t="n">
@@ -2118,7 +2118,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
       <c r="B53" t="n">
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
       <c r="B54" t="n">
@@ -2182,7 +2182,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
       <c r="B55" t="n">
@@ -2214,7 +2214,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
       <c r="B56" t="n">
@@ -2246,7 +2246,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
       <c r="B57" t="n">
@@ -2278,7 +2278,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
       <c r="B58" t="n">
@@ -2310,7 +2310,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
       <c r="B59" t="n">
@@ -2342,7 +2342,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
       <c r="B60" t="n">
@@ -2374,7 +2374,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
       <c r="B61" t="n">
@@ -2406,7 +2406,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
       <c r="B62" t="n">
@@ -2438,7 +2438,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
       <c r="B63" t="n">
@@ -2470,7 +2470,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
       <c r="B64" t="n">
@@ -2502,7 +2502,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
       <c r="B65" t="n">
@@ -2534,7 +2534,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
       <c r="B66" t="n">
@@ -2566,7 +2566,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
       <c r="B67" t="n">
@@ -2598,7 +2598,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
       <c r="B68" t="n">
@@ -2630,7 +2630,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
       <c r="B69" t="n">
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
       <c r="B70" t="n">
@@ -2694,7 +2694,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
       <c r="B71" t="n">
@@ -2726,7 +2726,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
       <c r="B72" t="n">
@@ -2758,7 +2758,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
       <c r="B73" t="n">
@@ -2790,7 +2790,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
       <c r="B74" t="n">
@@ -2822,7 +2822,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>74</v>
       </c>
       <c r="B75" t="n">
@@ -2854,7 +2854,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>75</v>
       </c>
       <c r="B76" t="n">
@@ -2886,7 +2886,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>76</v>
       </c>
       <c r="B77" t="n">
@@ -2918,7 +2918,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>77</v>
       </c>
       <c r="B78" t="n">
@@ -2950,7 +2950,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>78</v>
       </c>
       <c r="B79" t="n">
@@ -2982,7 +2982,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>79</v>
       </c>
       <c r="B80" t="n">
@@ -3014,7 +3014,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>80</v>
       </c>
       <c r="B81" t="n">
@@ -3046,7 +3046,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>81</v>
       </c>
       <c r="B82" t="n">
@@ -3078,7 +3078,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>82</v>
       </c>
       <c r="B83" t="n">
@@ -3110,7 +3110,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>83</v>
       </c>
       <c r="B84" t="n">
@@ -3142,7 +3142,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>84</v>
       </c>
       <c r="B85" t="n">
@@ -3174,7 +3174,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>85</v>
       </c>
       <c r="B86" t="n">
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>86</v>
       </c>
       <c r="B87" t="n">
@@ -3238,7 +3238,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>87</v>
       </c>
       <c r="B88" t="n">
@@ -3270,7 +3270,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>88</v>
       </c>
       <c r="B89" t="n">
@@ -3302,7 +3302,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>89</v>
       </c>
       <c r="B90" t="n">
@@ -3334,7 +3334,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
       <c r="B91" t="n">
@@ -3366,7 +3366,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
       <c r="B92" t="n">
@@ -3398,7 +3398,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>92</v>
       </c>
       <c r="B93" t="n">
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>93</v>
       </c>
       <c r="B94" t="n">
@@ -3462,7 +3462,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>94</v>
       </c>
       <c r="B95" t="n">
@@ -3494,7 +3494,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>95</v>
       </c>
       <c r="B96" t="n">
@@ -3526,7 +3526,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>96</v>
       </c>
       <c r="B97" t="n">
@@ -3558,7 +3558,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>97</v>
       </c>
       <c r="B98" t="n">
@@ -3590,7 +3590,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>98</v>
       </c>
       <c r="B99" t="n">
@@ -3622,7 +3622,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>99</v>
       </c>
       <c r="B100" t="n">
@@ -3654,7 +3654,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>100</v>
       </c>
       <c r="B101" t="n">
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>101</v>
       </c>
       <c r="B102" t="n">
@@ -3718,7 +3718,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>102</v>
       </c>
       <c r="B103" t="n">
@@ -3750,7 +3750,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>103</v>
       </c>
       <c r="B104" t="n">
@@ -3782,7 +3782,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>104</v>
       </c>
       <c r="B105" t="n">
@@ -3814,7 +3814,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>105</v>
       </c>
       <c r="B106" t="n">
@@ -3846,7 +3846,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>106</v>
       </c>
       <c r="B107" t="n">
@@ -3878,7 +3878,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>107</v>
       </c>
       <c r="B108" t="n">
@@ -3910,7 +3910,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>108</v>
       </c>
       <c r="B109" t="n">
@@ -3942,7 +3942,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>109</v>
       </c>
       <c r="B110" t="n">
@@ -3974,7 +3974,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>110</v>
       </c>
       <c r="B111" t="n">
@@ -4006,7 +4006,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>111</v>
       </c>
       <c r="B112" t="n">
@@ -4038,7 +4038,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>112</v>
       </c>
       <c r="B113" t="n">
@@ -4070,7 +4070,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>113</v>
       </c>
       <c r="B114" t="n">
@@ -4102,7 +4102,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>114</v>
       </c>
       <c r="B115" t="n">
@@ -4134,7 +4134,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>115</v>
       </c>
       <c r="B116" t="n">
@@ -4166,7 +4166,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>116</v>
       </c>
       <c r="B117" t="n">
@@ -4198,7 +4198,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>117</v>
       </c>
       <c r="B118" t="n">
@@ -4230,7 +4230,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>118</v>
       </c>
       <c r="B119" t="n">
@@ -4262,7 +4262,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>119</v>
       </c>
       <c r="B120" t="n">
@@ -4294,7 +4294,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>120</v>
       </c>
       <c r="B121" t="n">
@@ -4326,7 +4326,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>121</v>
       </c>
       <c r="B122" t="n">
@@ -4358,7 +4358,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>122</v>
       </c>
       <c r="B123" t="n">
@@ -4390,7 +4390,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>123</v>
       </c>
       <c r="B124" t="n">
@@ -4422,7 +4422,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>124</v>
       </c>
       <c r="B125" t="n">
@@ -4454,7 +4454,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>125</v>
       </c>
       <c r="B126" t="n">
@@ -4486,7 +4486,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>126</v>
       </c>
       <c r="B127" t="n">
@@ -4518,7 +4518,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>127</v>
       </c>
       <c r="B128" t="n">
@@ -4550,7 +4550,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>128</v>
       </c>
       <c r="B129" t="n">
@@ -4582,7 +4582,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>129</v>
       </c>
       <c r="B130" t="n">
@@ -4614,7 +4614,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>130</v>
       </c>
       <c r="B131" t="n">
@@ -4646,7 +4646,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>131</v>
       </c>
       <c r="B132" t="n">
@@ -4678,7 +4678,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>132</v>
       </c>
       <c r="B133" t="n">
@@ -4710,7 +4710,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>133</v>
       </c>
       <c r="B134" t="n">
@@ -4742,7 +4742,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>134</v>
       </c>
       <c r="B135" t="n">
@@ -4774,7 +4774,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>135</v>
       </c>
       <c r="B136" t="n">
@@ -4806,7 +4806,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>136</v>
       </c>
       <c r="B137" t="n">
@@ -4838,7 +4838,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>137</v>
       </c>
       <c r="B138" t="n">
@@ -4870,7 +4870,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>138</v>
       </c>
       <c r="B139" t="n">
@@ -4902,7 +4902,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>139</v>
       </c>
       <c r="B140" t="n">
@@ -4934,7 +4934,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>140</v>
       </c>
       <c r="B141" t="n">
@@ -4966,7 +4966,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>141</v>
       </c>
       <c r="B142" t="n">
@@ -4998,7 +4998,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>142</v>
       </c>
       <c r="B143" t="n">
@@ -5030,7 +5030,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>143</v>
       </c>
       <c r="B144" t="n">
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>144</v>
       </c>
       <c r="B145" t="n">
@@ -5094,7 +5094,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>145</v>
       </c>
       <c r="B146" t="n">
@@ -5126,7 +5126,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>146</v>
       </c>
       <c r="B147" t="n">
@@ -5158,7 +5158,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>147</v>
       </c>
       <c r="B148" t="n">
@@ -5190,7 +5190,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>148</v>
       </c>
       <c r="B149" t="n">
@@ -5222,7 +5222,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>149</v>
       </c>
       <c r="B150" t="n">
@@ -5254,7 +5254,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>150</v>
       </c>
       <c r="B151" t="n">
@@ -5286,7 +5286,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>151</v>
       </c>
       <c r="B152" t="n">
@@ -5318,7 +5318,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>152</v>
       </c>
       <c r="B153" t="n">
@@ -5350,7 +5350,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>153</v>
       </c>
       <c r="B154" t="n">
@@ -5382,7 +5382,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>154</v>
       </c>
       <c r="B155" t="n">
@@ -5414,7 +5414,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>155</v>
       </c>
       <c r="B156" t="n">
@@ -5446,7 +5446,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>156</v>
       </c>
       <c r="B157" t="n">
@@ -5478,7 +5478,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>157</v>
       </c>
       <c r="B158" t="n">
@@ -5510,7 +5510,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>158</v>
       </c>
       <c r="B159" t="n">
@@ -5542,7 +5542,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>159</v>
       </c>
       <c r="B160" t="n">
@@ -5574,7 +5574,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>160</v>
       </c>
       <c r="B161" t="n">
@@ -5606,7 +5606,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>161</v>
       </c>
       <c r="B162" t="n">
@@ -5638,7 +5638,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>162</v>
       </c>
       <c r="B163" t="n">
@@ -5670,7 +5670,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>163</v>
       </c>
       <c r="B164" t="n">
@@ -5702,7 +5702,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>164</v>
       </c>
       <c r="B165" t="n">
@@ -5734,7 +5734,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>165</v>
       </c>
       <c r="B166" t="n">
@@ -5766,7 +5766,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>166</v>
       </c>
       <c r="B167" t="n">
@@ -5798,7 +5798,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>167</v>
       </c>
       <c r="B168" t="n">
@@ -5830,7 +5830,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>168</v>
       </c>
       <c r="B169" t="n">
@@ -5862,7 +5862,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>169</v>
       </c>
       <c r="B170" t="n">
@@ -5894,7 +5894,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>170</v>
       </c>
       <c r="B171" t="n">
@@ -5926,7 +5926,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>171</v>
       </c>
       <c r="B172" t="n">
@@ -5958,7 +5958,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>172</v>
       </c>
       <c r="B173" t="n">
@@ -5990,7 +5990,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>173</v>
       </c>
       <c r="B174" t="n">
@@ -6022,7 +6022,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>174</v>
       </c>
       <c r="B175" t="n">
@@ -6054,7 +6054,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>175</v>
       </c>
       <c r="B176" t="n">
@@ -6086,7 +6086,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>176</v>
       </c>
       <c r="B177" t="n">
@@ -6118,7 +6118,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>177</v>
       </c>
       <c r="B178" t="n">
@@ -6150,7 +6150,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>178</v>
       </c>
       <c r="B179" t="n">
@@ -6182,7 +6182,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>179</v>
       </c>
       <c r="B180" t="n">
@@ -6214,7 +6214,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>180</v>
       </c>
       <c r="B181" t="n">
@@ -6246,7 +6246,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>181</v>
       </c>
       <c r="B182" t="n">
@@ -6278,7 +6278,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>182</v>
       </c>
       <c r="B183" t="n">
@@ -6310,7 +6310,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>183</v>
       </c>
       <c r="B184" t="n">
@@ -6342,7 +6342,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>184</v>
       </c>
       <c r="B185" t="n">
@@ -6374,7 +6374,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>185</v>
       </c>
       <c r="B186" t="n">
@@ -6406,7 +6406,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>186</v>
       </c>
       <c r="B187" t="n">
@@ -6438,7 +6438,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>187</v>
       </c>
       <c r="B188" t="n">
@@ -6470,7 +6470,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>188</v>
       </c>
       <c r="B189" t="n">
@@ -6502,7 +6502,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>189</v>
       </c>
       <c r="B190" t="n">
@@ -6534,7 +6534,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>190</v>
       </c>
       <c r="B191" t="n">
@@ -6566,7 +6566,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>191</v>
       </c>
       <c r="B192" t="n">
@@ -6598,7 +6598,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>192</v>
       </c>
       <c r="B193" t="n">
@@ -6630,7 +6630,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>193</v>
       </c>
       <c r="B194" t="n">
@@ -6662,7 +6662,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>194</v>
       </c>
       <c r="B195" t="n">
@@ -6694,7 +6694,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>195</v>
       </c>
       <c r="B196" t="n">
@@ -6726,7 +6726,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>196</v>
       </c>
       <c r="B197" t="n">
@@ -6758,7 +6758,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>197</v>
       </c>
       <c r="B198" t="n">
@@ -6790,7 +6790,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>198</v>
       </c>
       <c r="B199" t="n">
@@ -6822,7 +6822,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>199</v>
       </c>
       <c r="B200" t="n">
@@ -6854,7 +6854,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>200</v>
       </c>
       <c r="B201" t="n">
@@ -6886,7 +6886,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="A202" t="n">
         <v>201</v>
       </c>
       <c r="B202" t="n">
@@ -6918,7 +6918,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="A203" t="n">
         <v>202</v>
       </c>
       <c r="B203" t="n">
@@ -6950,7 +6950,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="A204" t="n">
         <v>203</v>
       </c>
       <c r="B204" t="n">
@@ -6982,7 +6982,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="A205" t="n">
         <v>204</v>
       </c>
       <c r="B205" t="n">
@@ -7014,7 +7014,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="A206" t="n">
         <v>205</v>
       </c>
       <c r="B206" t="n">
@@ -7046,7 +7046,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="A207" t="n">
         <v>206</v>
       </c>
       <c r="B207" t="n">
@@ -7078,7 +7078,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="A208" t="n">
         <v>207</v>
       </c>
       <c r="B208" t="n">
@@ -7110,7 +7110,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="A209" t="n">
         <v>208</v>
       </c>
       <c r="B209" t="n">
@@ -7142,7 +7142,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="A210" t="n">
         <v>209</v>
       </c>
       <c r="B210" t="n">
@@ -7174,7 +7174,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="A211" t="n">
         <v>210</v>
       </c>
       <c r="B211" t="n">
@@ -7206,7 +7206,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="A212" t="n">
         <v>211</v>
       </c>
       <c r="B212" t="n">
@@ -7238,7 +7238,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="A213" t="n">
         <v>212</v>
       </c>
       <c r="B213" t="n">
@@ -7270,7 +7270,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="A214" t="n">
         <v>213</v>
       </c>
       <c r="B214" t="n">
@@ -7302,7 +7302,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="A215" t="n">
         <v>214</v>
       </c>
       <c r="B215" t="n">
@@ -7334,7 +7334,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="A216" t="n">
         <v>215</v>
       </c>
       <c r="B216" t="n">
@@ -7366,7 +7366,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="A217" t="n">
         <v>216</v>
       </c>
       <c r="B217" t="n">
@@ -7398,7 +7398,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="A218" t="n">
         <v>217</v>
       </c>
       <c r="B218" t="n">
@@ -7430,7 +7430,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="A219" t="n">
         <v>218</v>
       </c>
       <c r="B219" t="n">
@@ -7462,7 +7462,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n">
+      <c r="A220" t="n">
         <v>219</v>
       </c>
       <c r="B220" t="n">
@@ -7494,7 +7494,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n">
+      <c r="A221" t="n">
         <v>220</v>
       </c>
       <c r="B221" t="n">
@@ -7526,7 +7526,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n">
+      <c r="A222" t="n">
         <v>221</v>
       </c>
       <c r="B222" t="n">
@@ -7558,7 +7558,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n">
+      <c r="A223" t="n">
         <v>222</v>
       </c>
       <c r="B223" t="n">
@@ -7590,7 +7590,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="A224" t="n">
         <v>223</v>
       </c>
       <c r="B224" t="n">
@@ -7622,7 +7622,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
+      <c r="A225" t="n">
         <v>224</v>
       </c>
       <c r="B225" t="n">
@@ -7654,7 +7654,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n">
+      <c r="A226" t="n">
         <v>225</v>
       </c>
       <c r="B226" t="n">
@@ -7686,7 +7686,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
+      <c r="A227" t="n">
         <v>226</v>
       </c>
       <c r="B227" t="n">
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n">
+      <c r="A228" t="n">
         <v>227</v>
       </c>
       <c r="B228" t="n">
@@ -7750,7 +7750,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n">
+      <c r="A229" t="n">
         <v>228</v>
       </c>
       <c r="B229" t="n">
@@ -7782,7 +7782,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
+      <c r="A230" t="n">
         <v>229</v>
       </c>
       <c r="B230" t="n">
@@ -7814,7 +7814,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="A231" t="n">
         <v>230</v>
       </c>
       <c r="B231" t="n">
@@ -7846,7 +7846,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n">
+      <c r="A232" t="n">
         <v>231</v>
       </c>
       <c r="B232" t="n">
@@ -7878,7 +7878,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n">
+      <c r="A233" t="n">
         <v>232</v>
       </c>
       <c r="B233" t="n">
@@ -7910,7 +7910,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="A234" t="n">
         <v>233</v>
       </c>
       <c r="B234" t="n">
@@ -7942,7 +7942,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="A235" t="n">
         <v>234</v>
       </c>
       <c r="B235" t="n">
@@ -7974,7 +7974,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="A236" t="n">
         <v>235</v>
       </c>
       <c r="B236" t="n">
@@ -8006,7 +8006,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n">
+      <c r="A237" t="n">
         <v>236</v>
       </c>
       <c r="B237" t="n">
@@ -8038,7 +8038,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
+      <c r="A238" t="n">
         <v>237</v>
       </c>
       <c r="B238" t="n">
@@ -8070,7 +8070,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
+      <c r="A239" t="n">
         <v>238</v>
       </c>
       <c r="B239" t="n">
@@ -8102,7 +8102,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n">
+      <c r="A240" t="n">
         <v>239</v>
       </c>
       <c r="B240" t="n">
@@ -8134,7 +8134,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
+      <c r="A241" t="n">
         <v>240</v>
       </c>
       <c r="B241" t="n">
@@ -8166,7 +8166,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="A242" t="n">
         <v>241</v>
       </c>
       <c r="B242" t="n">
@@ -8198,7 +8198,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="A243" t="n">
         <v>242</v>
       </c>
       <c r="B243" t="n">
@@ -8230,7 +8230,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="n">
+      <c r="A244" t="n">
         <v>243</v>
       </c>
       <c r="B244" t="n">
@@ -8262,7 +8262,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n">
+      <c r="A245" t="n">
         <v>244</v>
       </c>
       <c r="B245" t="n">
@@ -8294,7 +8294,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n">
+      <c r="A246" t="n">
         <v>245</v>
       </c>
       <c r="B246" t="n">
@@ -8326,7 +8326,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n">
+      <c r="A247" t="n">
         <v>246</v>
       </c>
       <c r="B247" t="n">
@@ -8358,7 +8358,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n">
+      <c r="A248" t="n">
         <v>247</v>
       </c>
       <c r="B248" t="n">
@@ -8390,7 +8390,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n">
+      <c r="A249" t="n">
         <v>248</v>
       </c>
       <c r="B249" t="n">
@@ -8422,7 +8422,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n">
+      <c r="A250" t="n">
         <v>249</v>
       </c>
       <c r="B250" t="n">
@@ -8454,7 +8454,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="A251" t="n">
         <v>250</v>
       </c>
       <c r="B251" t="n">
@@ -8486,7 +8486,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n">
+      <c r="A252" t="n">
         <v>251</v>
       </c>
       <c r="B252" t="n">
@@ -8518,7 +8518,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n">
+      <c r="A253" t="n">
         <v>252</v>
       </c>
       <c r="B253" t="n">
@@ -8550,7 +8550,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="n">
+      <c r="A254" t="n">
         <v>253</v>
       </c>
       <c r="B254" t="n">
@@ -8582,7 +8582,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="A255" t="n">
         <v>254</v>
       </c>
       <c r="B255" t="n">
@@ -8614,7 +8614,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="n">
+      <c r="A256" t="n">
         <v>255</v>
       </c>
       <c r="B256" t="n">
@@ -8646,7 +8646,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="n">
+      <c r="A257" t="n">
         <v>256</v>
       </c>
       <c r="B257" t="n">
